--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/input/egypt_rawdata.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/input/egypt_rawdata.xlsx
@@ -1,29 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="4"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="age5yr" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="asfr" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="survival" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="s0shf" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="s0shm" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="edattainm" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="edattainf" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="index" sheetId="8" r:id="rId11"/>
+    <sheet name="age5yr" sheetId="1" r:id="rId1"/>
+    <sheet name="asfr" sheetId="2" r:id="rId2"/>
+    <sheet name="survival" sheetId="3" r:id="rId3"/>
+    <sheet name="s0shf" sheetId="4" r:id="rId4"/>
+    <sheet name="s0shm" sheetId="5" r:id="rId5"/>
+    <sheet name="edattainm" sheetId="6" r:id="rId6"/>
+    <sheet name="edattainf" sheetId="7" r:id="rId7"/>
+    <sheet name="index" sheetId="8" r:id="rId8"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mhaZG++2gzpL1JXUnIpAdL5tVZ8Hw=="/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>male</t>
   </si>
@@ -112,7 +110,7 @@
     <t>fhic</t>
   </si>
   <si>
-    <t>s0shf</t>
+    <t>s0sh</t>
   </si>
   <si>
     <t>ps</t>
@@ -125,9 +123,6 @@
   </si>
   <si>
     <t>ts</t>
-  </si>
-  <si>
-    <t>s0shm</t>
   </si>
   <si>
     <t>no</t>
@@ -208,147 +203,746 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="27">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="&quot;Times New Roman&quot;"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="&quot;Times New Roman&quot;"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -538,258 +1132,260 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.56"/>
+    <col min="1" max="26" width="10.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="15.75" customHeight="1" spans="2:3">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="9">
         <v>6528.609</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="9">
         <v>6168.603</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="9">
         <v>6354.802</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="9">
         <v>5976.526</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
+    <row r="4" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="9">
         <v>4985.998</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="9">
         <v>4698.341</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
+    <row r="5" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="9">
         <v>4475.741</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="9">
         <v>4225.351</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
+    <row r="6" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="9">
         <v>4311.277</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="9">
         <v>4105.318</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
+    <row r="7" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="9">
         <v>4096.307</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="9">
         <v>3998.228</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="1" t="s">
+    <row r="8" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="9">
         <v>4065.995</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="9">
         <v>3999.18</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="1" t="s">
+    <row r="9" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="9">
         <v>3621.128</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="9">
         <v>3512.046</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="1" t="s">
+    <row r="10" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="9">
         <v>3061.179</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="9">
         <v>2979.326</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="1" t="s">
+    <row r="11" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="9">
         <v>2426.734</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="9">
         <v>2481.363</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="1" t="s">
+    <row r="12" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="9">
         <v>2069.528</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="9">
         <v>2143.707</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="9">
         <v>1803.211</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="9">
         <v>1828.446</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="1" t="s">
+    <row r="14" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="9">
         <v>1451.809</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="9">
         <v>1509.506</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="1" t="s">
+    <row r="15" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="9">
         <v>1040.463</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="9">
         <v>1120.879</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="1" t="s">
+    <row r="16" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="9">
         <v>757.873</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="9">
         <v>907.746</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="17" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="9">
         <v>365.017</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="9">
         <v>500.344</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="18" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="9">
         <v>192.66</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="9">
         <v>291.316</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="1" t="s">
+    <row r="19" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="9">
         <v>74.666</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="9">
         <v>134.929</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="1" t="s">
+    <row r="20" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="9">
         <v>17.328</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="9">
         <v>41.672</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1" t="s">
+    <row r="21" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="9">
         <v>2.358</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="9">
         <v>7.926</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="1" t="s">
+    <row r="22" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="9">
         <v>0.179</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="9">
         <v>0.788</v>
       </c>
     </row>
@@ -1772,115 +2368,115 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="1" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.56"/>
-    <col customWidth="1" min="2" max="2" width="13.11"/>
-    <col customWidth="1" min="3" max="26" width="10.56"/>
+    <col min="1" max="1" width="10.5583333333333" customWidth="1"/>
+    <col min="2" max="2" width="13.1083333333333" customWidth="1"/>
+    <col min="3" max="26" width="10.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="B1" s="3" t="s">
+    <row r="1" ht="15.75" customHeight="1" spans="2:3">
+      <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="9">
         <v>50.2</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="10">
         <v>12.3034016601603</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
-        <v>201.0</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="9">
+        <v>201</v>
+      </c>
+      <c r="C3" s="10">
         <v>45.5932105911354</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
+    <row r="4" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="9">
         <v>174.7</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="10">
         <v>87.9539333517565</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
+    <row r="5" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="9">
         <v>118.2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="10">
         <v>107.318717911465</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
+    <row r="6" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="9">
         <v>62.9</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="10">
         <v>64.6720968737279</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
+    <row r="7" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="9">
         <v>14.5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="10">
         <v>15.4047684335841</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="1" t="s">
+    <row r="8" ht="15.75" customHeight="1" spans="1:3">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="9">
         <v>4.8</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="10">
         <v>1.43004733583908</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="C9" s="4"/>
+    <row r="9" ht="15.75" customHeight="1" spans="3:3">
+      <c r="C9" s="10"/>
     </row>
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1"/>
@@ -2874,394 +3470,394 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="1" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.56"/>
+    <col min="1" max="26" width="10.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="B1" s="3" t="s">
+    <row r="1" ht="15.75" customHeight="1" spans="2:5">
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="2" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
         <v>98583.21</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="9">
         <v>98788.95</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="7">
         <v>99558.4662776319</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="7">
         <v>99623.0063930079</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="3" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A3" s="7">
+        <v>5</v>
+      </c>
+      <c r="B3" s="9">
         <v>98192.84</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="9">
         <v>98437.72</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>99454.210915998</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>99533.1184185677</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B4" s="2">
+    <row r="4" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A4" s="7">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9">
         <v>97982.96</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="9">
         <v>98303.86</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>99394.4514595152</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>99481.1646026676</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A5" s="7">
+        <v>15</v>
+      </c>
+      <c r="B5" s="9">
         <v>97796.96</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="9">
         <v>98197.21</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>99310.5473896343</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>99425.2312564958</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="6" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A6" s="7">
+        <v>20</v>
+      </c>
+      <c r="B6" s="9">
         <v>97497.03</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="9">
         <v>98066.99</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>99092.4639638649</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <v>99328.8908378178</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="7" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A7" s="7">
+        <v>25</v>
+      </c>
+      <c r="B7" s="9">
         <v>97042.05</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="9">
         <v>97869.16</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="7">
         <v>98706.3112918228</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="7">
         <v>99180.6433619081</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="B8" s="2">
+    <row r="8" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A8" s="7">
+        <v>30</v>
+      </c>
+      <c r="B8" s="9">
         <v>96504.71</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="9">
         <v>97594.36</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="7">
         <v>98225.6141636705</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="7">
         <v>98981.0079860987</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="1">
-        <v>35.0</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="9" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A9" s="7">
+        <v>35</v>
+      </c>
+      <c r="B9" s="9">
         <v>95827.69</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="9">
         <v>97197.98</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="7">
         <v>97690.2460909222</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="7">
         <v>98718.991690509</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="10" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A10" s="7">
+        <v>40</v>
+      </c>
+      <c r="B10" s="9">
         <v>95022.09</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="9">
         <v>96711.46</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="7">
         <v>97047.3653193127</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="7">
         <v>98363.8473817856</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="1">
-        <v>45.0</v>
-      </c>
-      <c r="B11" s="2">
+    <row r="11" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A11" s="7">
+        <v>45</v>
+      </c>
+      <c r="B11" s="9">
         <v>93774.42</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="9">
         <v>96024.22</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="7">
         <v>96163.9727108916</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="7">
         <v>97844.6675307386</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="B12" s="2">
+    <row r="12" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A12" s="7">
+        <v>50</v>
+      </c>
+      <c r="B12" s="9">
         <v>91204.92</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="9">
         <v>94573.69</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="7">
         <v>94837.501492148</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="7">
         <v>97050.3775135251</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="1">
-        <v>55.0</v>
-      </c>
-      <c r="B13" s="2">
+    <row r="13" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A13" s="7">
+        <v>55</v>
+      </c>
+      <c r="B13" s="9">
         <v>86557.21</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="9">
         <v>91997.38</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="7">
         <v>92779.747789658</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="7">
         <v>95842.8064558969</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="1">
-        <v>60.0</v>
-      </c>
-      <c r="B14" s="2">
+    <row r="14" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A14" s="7">
+        <v>60</v>
+      </c>
+      <c r="B14" s="9">
         <v>80587.53</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="9">
         <v>88398.48</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="7">
         <v>89628.3819520735</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="7">
         <v>94043.1256093588</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="1">
-        <v>65.0</v>
-      </c>
-      <c r="B15" s="2">
+    <row r="15" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A15" s="7">
+        <v>65</v>
+      </c>
+      <c r="B15" s="9">
         <v>72003.11</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="9">
         <v>82378.6</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="7">
         <v>85020.5238482083</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="7">
         <v>91404.9522708399</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="1">
-        <v>70.0</v>
-      </c>
-      <c r="B16" s="2">
+    <row r="16" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A16" s="7">
+        <v>70</v>
+      </c>
+      <c r="B16" s="9">
         <v>60345.82</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="9">
         <v>73483.98</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="7">
         <v>78830.5019367089</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="7">
         <v>87727.5718043054</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="1">
-        <v>75.0</v>
-      </c>
-      <c r="B17" s="2">
+    <row r="17" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A17" s="7">
+        <v>75</v>
+      </c>
+      <c r="B17" s="9">
         <v>45595.14</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="9">
         <v>60121.54</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="7">
         <v>69972.6984654897</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="7">
         <v>81920.9520650037</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="1">
-        <v>80.0</v>
-      </c>
-      <c r="B18" s="2">
+    <row r="18" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A18" s="7">
+        <v>80</v>
+      </c>
+      <c r="B18" s="9">
         <v>28944.22</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="9">
         <v>42494.72</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="7">
         <v>57088.6391782002</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="7">
         <v>72162.8292947842</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="1">
-        <v>85.0</v>
-      </c>
-      <c r="B19" s="2">
+    <row r="19" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A19" s="7">
+        <v>85</v>
+      </c>
+      <c r="B19" s="9">
         <v>14418.7</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="9">
         <v>24165.71</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="7">
         <v>40506.1963466983</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="7">
         <v>57193.1158821754</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="1">
-        <v>90.0</v>
-      </c>
-      <c r="B20" s="2">
+    <row r="20" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A20" s="7">
+        <v>90</v>
+      </c>
+      <c r="B20" s="9">
         <v>4855.05</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="9">
         <v>10210.84</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="7">
         <v>22974.1725048295</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="7">
         <v>37636.6254002739</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="1">
-        <v>95.0</v>
-      </c>
-      <c r="B21" s="2">
+    <row r="21" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A21" s="7">
+        <v>95</v>
+      </c>
+      <c r="B21" s="9">
         <v>1015.93</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="9">
         <v>2925.76</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="7">
         <v>9264.34435747396</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="7">
         <v>18137.7024147346</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="B22" s="2">
+    <row r="22" ht="15.75" customHeight="1" spans="1:5">
+      <c r="A22" s="7">
+        <v>100</v>
+      </c>
+      <c r="B22" s="9">
         <v>128.98</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="9">
         <v>452.53</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="7">
         <v>2308.82146574295</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="7">
         <v>5401.16446593289</v>
       </c>
     </row>
@@ -4244,420 +4840,420 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="1" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.56"/>
+    <col min="1" max="26" width="10.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="15.75" customHeight="1" spans="2:6">
+      <c r="B1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="2" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A2" s="8">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7">
         <v>106.85143</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="5">
-        <v>7.0</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A3" s="8">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
         <v>106.85143</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A4" s="8">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
         <v>106.85143</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="5">
-        <v>9.0</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A5" s="8">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7">
         <v>106.85143</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A6" s="8">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7">
         <v>106.85143</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="5">
-        <v>11.0</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A7" s="8">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7">
         <v>106.85143</v>
       </c>
-      <c r="C7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="5">
-        <v>12.0</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A8" s="8">
+        <v>12</v>
+      </c>
+      <c r="B8" s="7">
         <v>100.71186</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="7">
         <v>106.85143</v>
       </c>
-      <c r="D8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="5">
-        <v>13.0</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A9" s="8">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7">
         <v>100.71186</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="7">
         <v>106.85143</v>
       </c>
-      <c r="D9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="5">
-        <v>14.0</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A10" s="8">
+        <v>14</v>
+      </c>
+      <c r="B10" s="7">
         <v>100.71186</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="7">
         <v>106.85143</v>
       </c>
-      <c r="D10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="5">
-        <v>15.0</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A11" s="8">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7">
         <v>76.94527</v>
       </c>
-      <c r="C11" s="1">
-        <v>6.139569999999992</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="7">
+        <v>6.13956999999999</v>
+      </c>
+      <c r="D11" s="7">
         <v>100.71186</v>
       </c>
-      <c r="E11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="5">
-        <v>16.0</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A12" s="8">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
         <v>76.94527</v>
       </c>
-      <c r="C12" s="1">
-        <v>6.139569999999992</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="7">
+        <v>6.13956999999999</v>
+      </c>
+      <c r="D12" s="7">
         <v>100.71186</v>
       </c>
-      <c r="E12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="5">
-        <v>17.0</v>
-      </c>
-      <c r="B13" s="1">
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A13" s="8">
+        <v>17</v>
+      </c>
+      <c r="B13" s="7">
         <v>76.94527</v>
       </c>
-      <c r="C13" s="1">
-        <v>6.139569999999992</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="7">
+        <v>6.13956999999999</v>
+      </c>
+      <c r="D13" s="7">
         <v>100.71186</v>
       </c>
-      <c r="E13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="5">
-        <v>18.0</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A14" s="8">
+        <v>18</v>
+      </c>
+      <c r="B14" s="7">
         <v>39.8104782</v>
       </c>
-      <c r="C14" s="1">
-        <v>6.139569999999992</v>
-      </c>
-      <c r="D14" s="1">
-        <v>23.766590000000008</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="C14" s="7">
+        <v>6.13956999999999</v>
+      </c>
+      <c r="D14" s="7">
+        <v>23.76659</v>
+      </c>
+      <c r="E14" s="7">
         <v>76.94527</v>
       </c>
-      <c r="F14" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="5">
-        <v>19.0</v>
-      </c>
-      <c r="B15" s="1">
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A15" s="8">
+        <v>19</v>
+      </c>
+      <c r="B15" s="7">
         <v>39.8104782</v>
       </c>
-      <c r="C15" s="1">
-        <v>6.139569999999992</v>
-      </c>
-      <c r="D15" s="1">
-        <v>23.766590000000008</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="C15" s="7">
+        <v>6.13956999999999</v>
+      </c>
+      <c r="D15" s="7">
+        <v>23.76659</v>
+      </c>
+      <c r="E15" s="7">
         <v>76.94527</v>
       </c>
-      <c r="F15" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="5">
-        <v>20.0</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A16" s="8">
+        <v>20</v>
+      </c>
+      <c r="B16" s="7">
         <v>39.8104782</v>
       </c>
-      <c r="C16" s="1">
-        <v>6.139569999999992</v>
-      </c>
-      <c r="D16" s="1">
-        <v>23.766590000000008</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="C16" s="7">
+        <v>6.13956999999999</v>
+      </c>
+      <c r="D16" s="7">
+        <v>23.76659</v>
+      </c>
+      <c r="E16" s="7">
         <v>76.94527</v>
       </c>
-      <c r="F16" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="5">
-        <v>21.0</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A17" s="8">
+        <v>21</v>
+      </c>
+      <c r="B17" s="7">
         <v>39.8104782</v>
       </c>
-      <c r="C17" s="1">
-        <v>6.139569999999992</v>
-      </c>
-      <c r="D17" s="1">
-        <v>23.766590000000008</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="C17" s="7">
+        <v>6.13956999999999</v>
+      </c>
+      <c r="D17" s="7">
+        <v>23.76659</v>
+      </c>
+      <c r="E17" s="7">
         <v>76.94527</v>
       </c>
-      <c r="F17" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="5">
-        <v>22.0</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A18" s="8">
+        <v>22</v>
+      </c>
+      <c r="B18" s="7">
         <v>39.8104782</v>
       </c>
-      <c r="C18" s="1">
-        <v>6.139569999999992</v>
-      </c>
-      <c r="D18" s="1">
-        <v>23.766590000000008</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="C18" s="7">
+        <v>6.13956999999999</v>
+      </c>
+      <c r="D18" s="7">
+        <v>23.76659</v>
+      </c>
+      <c r="E18" s="7">
         <v>76.94527</v>
       </c>
-      <c r="F18" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="5">
-        <v>23.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>6.139569999999992</v>
-      </c>
-      <c r="D19" s="1">
-        <v>23.766590000000008</v>
-      </c>
-      <c r="E19" s="1">
-        <v>58.307069999999996</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A19" s="8">
+        <v>23</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>6.13956999999999</v>
+      </c>
+      <c r="D19" s="7">
+        <v>23.76659</v>
+      </c>
+      <c r="E19" s="7">
+        <v>58.30707</v>
+      </c>
+      <c r="F19" s="7">
         <v>18.6382</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="5">
-        <v>24.0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>6.139569999999992</v>
-      </c>
-      <c r="D20" s="1">
-        <v>23.766590000000008</v>
-      </c>
-      <c r="E20" s="1">
-        <v>58.307069999999996</v>
-      </c>
-      <c r="F20" s="1">
+    <row r="20" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A20" s="8">
+        <v>24</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>6.13956999999999</v>
+      </c>
+      <c r="D20" s="7">
+        <v>23.76659</v>
+      </c>
+      <c r="E20" s="7">
+        <v>58.30707</v>
+      </c>
+      <c r="F20" s="7">
         <v>18.6382</v>
       </c>
     </row>
@@ -5642,624 +6238,628 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="1" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" customHeight="1" spans="2:6">
+      <c r="B1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" s="7">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7">
         <v>105.99355</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" s="7">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
         <v>105.99355</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="7">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
         <v>105.99355</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" s="7">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7">
         <v>105.99355</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="7">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7">
         <v>105.99355</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="7">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7">
         <v>105.99355</v>
       </c>
-      <c r="C7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="7">
+        <v>12</v>
+      </c>
+      <c r="B8" s="7">
         <v>101.1928</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="7">
         <v>105.99355</v>
       </c>
-      <c r="D8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="7">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7">
         <v>101.1928</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="7">
         <v>105.99355</v>
       </c>
-      <c r="D9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="7">
+        <v>14</v>
+      </c>
+      <c r="B10" s="7">
         <v>101.1928</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="7">
         <v>105.99355</v>
       </c>
-      <c r="D10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="7">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7">
         <v>78.17242</v>
       </c>
-      <c r="C11" s="1">
-        <v>4.800749999999994</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="7">
+        <v>4.80074999999999</v>
+      </c>
+      <c r="D11" s="7">
         <v>101.1928</v>
       </c>
-      <c r="E11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" s="7">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7">
         <v>78.17242</v>
       </c>
-      <c r="C12" s="1">
-        <v>4.800749999999994</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="7">
+        <v>4.80074999999999</v>
+      </c>
+      <c r="D12" s="7">
         <v>101.1928</v>
       </c>
-      <c r="E12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="B13" s="1">
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:6">
+      <c r="A13" s="7">
+        <v>17</v>
+      </c>
+      <c r="B13" s="7">
         <v>78.17242</v>
       </c>
-      <c r="C13" s="1">
-        <v>4.800749999999994</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="7">
+        <v>4.80074999999999</v>
+      </c>
+      <c r="D13" s="7">
         <v>101.1928</v>
       </c>
-      <c r="E13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:6">
+      <c r="A14" s="7">
+        <v>18</v>
+      </c>
+      <c r="B14" s="7">
         <v>38.0408783</v>
       </c>
-      <c r="C14" s="1">
-        <v>4.800749999999994</v>
-      </c>
-      <c r="D14" s="1">
-        <v>23.020380000000003</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="C14" s="7">
+        <v>4.80074999999999</v>
+      </c>
+      <c r="D14" s="7">
+        <v>23.02038</v>
+      </c>
+      <c r="E14" s="7">
         <v>78.17242</v>
       </c>
-      <c r="F14" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="B15" s="1">
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:6">
+      <c r="A15" s="7">
+        <v>19</v>
+      </c>
+      <c r="B15" s="7">
         <v>38.0408783</v>
       </c>
-      <c r="C15" s="1">
-        <v>4.800749999999994</v>
-      </c>
-      <c r="D15" s="1">
-        <v>23.020380000000003</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="C15" s="7">
+        <v>4.80074999999999</v>
+      </c>
+      <c r="D15" s="7">
+        <v>23.02038</v>
+      </c>
+      <c r="E15" s="7">
         <v>78.17242</v>
       </c>
-      <c r="F15" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:6">
+      <c r="A16" s="7">
+        <v>20</v>
+      </c>
+      <c r="B16" s="7">
         <v>38.0408783</v>
       </c>
-      <c r="C16" s="1">
-        <v>4.800749999999994</v>
-      </c>
-      <c r="D16" s="1">
-        <v>23.020380000000003</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="C16" s="7">
+        <v>4.80074999999999</v>
+      </c>
+      <c r="D16" s="7">
+        <v>23.02038</v>
+      </c>
+      <c r="E16" s="7">
         <v>78.17242</v>
       </c>
-      <c r="F16" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:6">
+      <c r="A17" s="7">
+        <v>21</v>
+      </c>
+      <c r="B17" s="7">
         <v>38.0408783</v>
       </c>
-      <c r="C17" s="1">
-        <v>4.800749999999994</v>
-      </c>
-      <c r="D17" s="1">
-        <v>23.020380000000003</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="C17" s="7">
+        <v>4.80074999999999</v>
+      </c>
+      <c r="D17" s="7">
+        <v>23.02038</v>
+      </c>
+      <c r="E17" s="7">
         <v>78.17242</v>
       </c>
-      <c r="F17" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:6">
+      <c r="A18" s="7">
+        <v>22</v>
+      </c>
+      <c r="B18" s="7">
         <v>38.0408783</v>
       </c>
-      <c r="C18" s="1">
-        <v>4.800749999999994</v>
-      </c>
-      <c r="D18" s="1">
-        <v>23.020380000000003</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="C18" s="7">
+        <v>4.80074999999999</v>
+      </c>
+      <c r="D18" s="7">
+        <v>23.02038</v>
+      </c>
+      <c r="E18" s="7">
         <v>78.17242</v>
       </c>
-      <c r="F18" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>4.800749999999994</v>
-      </c>
-      <c r="D19" s="1">
-        <v>23.020380000000003</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:6">
+      <c r="A19" s="7">
+        <v>23</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>4.80074999999999</v>
+      </c>
+      <c r="D19" s="7">
+        <v>23.02038</v>
+      </c>
+      <c r="E19" s="7">
         <v>61.29017</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="7">
         <v>16.88225</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>4.800749999999994</v>
-      </c>
-      <c r="D20" s="1">
-        <v>23.020380000000003</v>
-      </c>
-      <c r="E20" s="1">
+    <row r="20" customHeight="1" spans="1:6">
+      <c r="A20" s="7">
+        <v>24</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>4.80074999999999</v>
+      </c>
+      <c r="D20" s="7">
+        <v>23.02038</v>
+      </c>
+      <c r="E20" s="7">
         <v>61.29017</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="7">
         <v>16.88225</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.56"/>
+    <col min="1" max="26" width="10.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1" spans="1:10">
       <c r="A1" s="6"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="8">
-        <v>15.0</v>
-      </c>
-      <c r="B2" s="8">
-        <v>24.0</v>
-      </c>
-      <c r="C2" s="9">
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:10">
+      <c r="A2" s="4">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5">
         <v>14.41</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="5">
         <v>11.21</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="5">
         <v>8.79</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="5">
         <v>66.72</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="5">
         <v>41.66</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="5">
         <v>7.65</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="5">
         <v>2.87</v>
       </c>
-      <c r="J2" s="9">
-        <v>8480.0</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="8">
-        <v>25.0</v>
-      </c>
-      <c r="B3" s="8">
-        <v>34.0</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="J2" s="5">
+        <v>8480</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:10">
+      <c r="A3" s="4">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5">
         <v>4.04</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="5">
         <v>3.32</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="5">
         <v>2.19</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="5">
         <v>52.04</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="5">
         <v>48.55</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="5">
         <v>40.6</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="5">
         <v>24.04</v>
       </c>
-      <c r="J3" s="9">
-        <v>7833.0</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="8">
-        <v>35.0</v>
-      </c>
-      <c r="B4" s="8">
-        <v>44.0</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="J3" s="5">
+        <v>7833</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" spans="1:10">
+      <c r="A4" s="4">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5">
         <v>29.46</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="5">
         <v>3.9</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="5">
         <v>2.37</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="5">
         <v>48.14</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="5">
         <v>44.38</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="5">
         <v>18.49</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="5">
         <v>12.6</v>
       </c>
-      <c r="J4" s="9">
-        <v>5572.0</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="8">
-        <v>45.0</v>
-      </c>
-      <c r="B5" s="8">
-        <v>54.0</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="J4" s="5">
+        <v>5572</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="1:10">
+      <c r="A5" s="4">
+        <v>45</v>
+      </c>
+      <c r="B5" s="4">
+        <v>54</v>
+      </c>
+      <c r="C5" s="5">
         <v>38.51</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="5">
         <v>3.7</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="5">
         <v>2.14</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="5">
         <v>41.69</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="5">
         <v>37.58</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="5">
         <v>16.1</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="5">
         <v>11.47</v>
       </c>
-      <c r="J5" s="9">
-        <v>4080.0</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="8">
-        <v>55.0</v>
-      </c>
-      <c r="B6" s="8">
-        <v>64.0</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="J5" s="5">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" spans="1:10">
+      <c r="A6" s="4">
+        <v>55</v>
+      </c>
+      <c r="B6" s="4">
+        <v>64</v>
+      </c>
+      <c r="C6" s="5">
         <v>50.31</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="5">
         <v>3.72</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="5">
         <v>1.98</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="5">
         <v>29.86</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="5">
         <v>26.16</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="5">
         <v>16.1</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="5">
         <v>11.94</v>
       </c>
-      <c r="J6" s="9">
-        <v>2801.0</v>
+      <c r="J6" s="5">
+        <v>2801</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
@@ -7257,212 +7857,212 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="1" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.56"/>
+    <col min="1" max="26" width="10.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7" t="s">
+    <row r="1" ht="15.75" customHeight="1" spans="1:10">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="8">
-        <v>15.0</v>
-      </c>
-      <c r="B2" s="8">
-        <v>24.0</v>
-      </c>
-      <c r="C2" s="9">
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:10">
+      <c r="A2" s="4">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5">
         <v>16.44</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="5">
         <v>11.06</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="5">
         <v>9.42</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="5">
         <v>63.67</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="5">
         <v>38.75</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="5">
         <v>8.84</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="5">
         <v>3.85</v>
       </c>
-      <c r="J2" s="9">
-        <v>8122.0</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="8">
-        <v>25.0</v>
-      </c>
-      <c r="B3" s="8">
-        <v>34.0</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="J2" s="5">
+        <v>8122</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:10">
+      <c r="A3" s="4">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5">
         <v>46.47</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="5">
         <v>2.85</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="5">
         <v>1.98</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="5">
         <v>47.56</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="5">
         <v>43.64</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="5">
         <v>2.88</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="5">
         <v>1.81</v>
       </c>
-      <c r="J3" s="9">
-        <v>7606.0</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="8">
-        <v>35.0</v>
-      </c>
-      <c r="B4" s="8">
-        <v>44.0</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="J3" s="5">
+        <v>7606</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" spans="1:10">
+      <c r="A4" s="4">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5">
         <v>42.2</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="5">
         <v>3.35</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="5">
         <v>2.02</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="5">
         <v>40.36</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="5">
         <v>36.67</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="5">
         <v>14.09</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="5">
         <v>9.76</v>
       </c>
-      <c r="J4" s="9">
-        <v>5515.0</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="8">
-        <v>45.0</v>
-      </c>
-      <c r="B5" s="8">
-        <v>54.0</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="J4" s="5">
+        <v>5515</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="1:10">
+      <c r="A5" s="4">
+        <v>45</v>
+      </c>
+      <c r="B5" s="4">
+        <v>54</v>
+      </c>
+      <c r="C5" s="5">
         <v>58.87</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="5">
         <v>2.71</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="5">
         <v>1.42</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="5">
         <v>28.5</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="5">
         <v>25.59</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="5">
         <v>9.92</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="5">
         <v>6.63</v>
       </c>
-      <c r="J5" s="9">
-        <v>4088.0</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="8">
-        <v>55.0</v>
-      </c>
-      <c r="B6" s="8">
-        <v>64.0</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="J5" s="5">
+        <v>4088</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" spans="1:10">
+      <c r="A6" s="4">
+        <v>55</v>
+      </c>
+      <c r="B6" s="4">
+        <v>64</v>
+      </c>
+      <c r="C6" s="5">
         <v>72.24</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="5">
         <v>2.64</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="5">
         <v>1.3</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="5">
         <v>16.79</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="5">
         <v>14.8</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="5">
         <v>8.33</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="5">
         <v>5.26</v>
       </c>
-      <c r="J6" s="9">
-        <v>2832.0</v>
+      <c r="J6" s="5">
+        <v>2832</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
@@ -8460,174 +9060,174 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="1" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.2166666666667" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.11"/>
-    <col customWidth="1" min="2" max="26" width="10.56"/>
+    <col min="1" max="1" width="17.1083333333333" customWidth="1"/>
+    <col min="2" max="26" width="10.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11" t="s">
+    <row r="1" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="11" t="s">
+      <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="E6" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="E7" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="E8" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" ht="15.75" customHeight="1"/>
     <row r="12" ht="15.75" customHeight="1"/>
@@ -9620,9 +10220,8 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="1" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>